--- a/conformer_test/sorted_combined_CA.xlsx
+++ b/conformer_test/sorted_combined_CA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k2584788/charge_paper/conformer_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1559D2-94DC-2349-8B10-F5766F9369F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E073811-25DD-D244-B464-EDBCEC9F1A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="14300" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="51">
   <si>
     <t>conformer_no</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Remove these</t>
+  </si>
+  <si>
+    <t>Remove because this is the only one in this set</t>
   </si>
 </sst>
 </file>
@@ -560,15 +566,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H394"/>
+  <dimension ref="A1:J394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
-      <selection activeCell="I374" sqref="I374"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -596,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -611,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -626,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -641,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -656,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -671,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -686,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -701,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -716,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -731,7 +737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -761,22 +767,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
@@ -791,7 +800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -807,6 +816,9 @@
       </c>
       <c r="H16" t="s">
         <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3718,7 +3730,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>7</v>
       </c>
@@ -3763,7 +3775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>8</v>
       </c>
@@ -3778,82 +3790,97 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
         <v>2</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C213" t="s">
-        <v>45</v>
-      </c>
-      <c r="F213">
+      <c r="C213" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>3</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C214" t="s">
-        <v>45</v>
-      </c>
-      <c r="F214">
+      <c r="C214" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
         <v>4</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C215" t="s">
-        <v>45</v>
-      </c>
-      <c r="F215">
+      <c r="C215" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
         <v>5</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C216" t="s">
-        <v>45</v>
-      </c>
-      <c r="F216">
+      <c r="C216" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
         <v>6</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C217" t="s">
-        <v>45</v>
-      </c>
-      <c r="F217">
+      <c r="C217" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -3867,8 +3894,11 @@
         <f t="shared" si="3"/>
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -3883,7 +3913,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -3898,7 +3928,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2</v>
       </c>
@@ -3913,7 +3943,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3</v>
       </c>
@@ -3928,7 +3958,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4</v>
       </c>
@@ -3943,7 +3973,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5</v>
       </c>
@@ -6520,5 +6550,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>